--- a/pred_ohlcv/54_21/2019-10-26 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 DAC ohlcv.xlsx
@@ -4058,7 +4058,7 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-789511.1347000013</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-785627.6740000013</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1063542.284000001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-847721.9060000014</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1128350.648000001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-819413.0250000014</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-561871.6220000014</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-893639.0310000014</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-535510.5430000013</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-802583.5880000014</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-613554.8700000014</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-386386.5970000014</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-629996.7230000014</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-414628.4360000014</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-601123.3444000013</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-608208.6899000014</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-608208.6899000014</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-992885.8789000014</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1121695.645900002</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-900737.0849000015</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1095331.936900001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-856366.3719000015</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1147823.178900002</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1018850.049900002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-636529.9880000015</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-635060.6011000015</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-864171.7056000015</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-857504.6254000015</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1162858.377100002</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-883869.9731000016</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1019995.360000002</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1454868.762100002</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1782800.760100001</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2081196.677500001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1957174.200900001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2505859.502900002</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2268792.710900002</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-4014817.775600001</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-3834547.155600001</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-3840434.612400001</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-3501954.709400001</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-3747301.201400001</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-3641312.960400001</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-3892650.808400001</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-3702973.809400002</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-4539596.593400002</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-4861011.114400001</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-4556628.219400002</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-4847894.952400002</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-4612446.238400002</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-4640949.617400002</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4780569.328400002</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-5003620.397400002</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-4794680.477400002</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-4853439.433400002</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-5178198.402400002</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-5178198.402400002</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-4896678.306400002</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4896678.306400002</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-4653455.630600002</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-4346201.121600002</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-4052180.042800002</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-4395932.604800002</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-4125585.384800002</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-3826124.280800002</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-4174626.061800002</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-4173595.061800002</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-4190155.061800002</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-3631798.369800002</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-3961180.231800003</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3620557.061800003</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-3535439.416800003</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-3675701.808800003</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-3430381.349800003</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-3697512.955800003</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-3451991.424800003</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-3506514.459800003</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-3257771.413800003</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-3382508.056400003</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3245807.516100003</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-3434414.087100003</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3434414.087100003</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-3448606.521100003</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3448606.521100003</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-3277774.190100003</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-3476385.677100003</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-3198613.925100003</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-3460554.617100003</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-3310457.425100003</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-3318570.733500003</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-3329082.758700003</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-3195678.258700003</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-3527810.211700004</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-3258096.020700003</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3133432.860700003</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3133432.860700003</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3368497.381700004</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-3613223.004700004</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-3214001.670700004</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3214001.670700004</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-3214001.670700004</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-2689824.478700004</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-2689824.478700004</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-2398733.338700004</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-2398733.338700004</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-2399608.338700004</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-2399591.330000004</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-2367647.757000003</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-3899247.191100003</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-3182055.978100003</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-3280922.705100003</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-3048733.882100003</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-3539560.212100003</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-4409148.764100002</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-4693277.572100002</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-4466988.258100002</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-4046502.160100002</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-4348962.529100002</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-4106627.756600002</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-3806061.952600002</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3988772.924600002</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-3988772.924600002</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-3693849.000600002</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-3864391.770600002</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-3603648.231600002</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-3603648.231600002</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-4109854.683600002</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-4109854.683600002</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3807253.789600002</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3581467.238600002</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-3900607.038600002</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-3693086.641600002</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3693086.641600002</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3788495.289600002</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-4047110.049600002</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3683124.300600003</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3683124.300600003</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3683124.300600003</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3398890.726600002</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3634905.059600003</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3634905.059600003</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3999596.319600003</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3696721.928600003</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3696721.928600003</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3329111.684600003</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3621644.847600003</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3188373.798600003</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2856910.395600003</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-2962588.776600003</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3200034.066800003</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-2910730.393800003</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-2656185.512800003</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-2956888.577800003</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-2956888.577800003</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-2783085.171800003</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-2497435.684800003</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-2772803.691800003</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-2901806.607800003</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-2901806.607800003</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-2638826.110800003</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-2885610.157800003</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-2487983.634800003</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-2790695.259800003</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-2471521.673800003</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-2196221.317800003</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-2453354.694800003</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-2453354.694800003</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-2721246.291800003</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-2441294.679800002</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-2078084.687800002</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-2492494.116800003</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-2228169.643800003</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-1922860.612800003</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-1938495.783800002</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-1662895.545800002</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-1684311.294800002</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-4073207.746900002</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 DAC ohlcv.xlsx
@@ -4058,7 +4058,7 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-603324.6771000014</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-789511.1347000013</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-785627.6740000013</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1063542.284000001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1186101.804000001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-847721.9060000014</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1128350.648000001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-819413.0250000014</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-561871.6220000014</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-893639.0310000014</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-605510.5430000013</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-535510.5430000013</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-802583.5880000014</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-613554.8700000014</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-386386.5970000014</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-629996.7230000014</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-414628.4360000014</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-601123.3444000013</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-608208.6899000014</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-992885.8789000014</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1121695.645900002</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-900737.0849000015</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1095331.936900001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-856366.3719000015</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1147823.178900002</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1018850.049900002</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-636529.9880000015</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-635060.6011000015</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-864171.7056000015</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-857504.6254000015</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1162858.377100002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-883869.9731000016</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1019995.360000002</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1454868.762100002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2081196.677500001</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1957174.200900001</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2505859.502900002</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2268792.710900002</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2263666.667400002</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1922068.925400002</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2099407.723400002</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1511648.525400002</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-959772.1964000019</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-668623.9034000018</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-888793.3534000018</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-478904.1644000018</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-770252.0684000017</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-563869.1474000018</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-765581.4534000017</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-650469.2424000017</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-411102.8284000017</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-680739.4894000017</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-367120.5064000017</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-367120.5064000017</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-591787.7404000016</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1077230.386400002</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1077230.386400002</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-798921.7744000016</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-598570.5534000016</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-734034.5154000015</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-990351.2324000015</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1263748.596400002</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1005331.614400002</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1309780.799400002</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1002433.547400002</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1432049.317400001</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1652096.082400001</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1652096.082400001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-4556358.098400001</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-4640949.617400002</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4541169.770400002</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-4542759.770400002</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-4542192.770400002</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4780569.328400002</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-5003620.397400002</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-5081124.563400002</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-5178198.402400002</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-5178198.402400002</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-4896678.306400002</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-4896678.306400002</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-4644469.630600002</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-4653455.630600002</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-4346201.121600002</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-4052180.042800002</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-4395932.604800002</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-4125585.384800002</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-3826124.280800002</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-4174626.061800002</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-4173595.061800002</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-4190155.061800002</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3875185.817800002</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-3631798.369800002</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-3961180.231800003</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3620557.061800003</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-3337387.148800002</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-3535439.416800003</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-3675701.808800003</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-3430381.349800003</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-3697512.955800003</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-3451991.424800003</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3193554.317800003</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-3506514.459800003</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-3257771.413800003</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-3409508.056400003</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-3382508.056400003</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3245807.516100003</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-3147442.655100003</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3434414.087100003</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-3135459.116100003</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3589679.827700004</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3133432.860700003</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3368497.381700004</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-4073207.746900002</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
